--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5404AE4C-0492-42CC-9B3F-65EA4FB08B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E62833-92C8-4420-B480-77AFDC3C205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="552" windowWidth="11568" windowHeight="9720" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -65,16 +65,50 @@
   </si>
   <si>
     <t>ANN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production </t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Import_price</t>
+  </si>
+  <si>
+    <t>Export_price</t>
+  </si>
+  <si>
+    <t>Total imports</t>
+  </si>
+  <si>
+    <t>Total exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midgrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumn </t>
+  </si>
+  <si>
+    <t>Premium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +123,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,12 +139,112 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -111,10 +252,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -430,18 +594,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1FC2E-B25D-49D5-89C8-E0913BCC7A4D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -481,12 +651,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -506,7 +676,7 @@
         <v>-4.2862516521673504E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -520,8 +690,87 @@
         <v>1.0775999999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9">
+        <v>1.6336690000000001E-2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.0914699999999998E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.3080000000000002E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1.09622E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-9.3255600000000001E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.7987400000000001E-3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.78933E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.84784256999999996</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-0.55641967000000003</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.43814266000000002</v>
+      </c>
+      <c r="K9" s="11">
+        <v>-6.0167399999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="F16" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E62833-92C8-4420-B480-77AFDC3C205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC70965-7353-4F13-A1A0-460E79EE9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
+    <workbookView xWindow="3276" yWindow="354" windowWidth="11568" windowHeight="9600" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +98,60 @@
   </si>
   <si>
     <t>Premium</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Stock GDP</t>
+  </si>
+  <si>
+    <t>Working Population</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>MRM_1</t>
+  </si>
+  <si>
+    <t>MRM_2</t>
+  </si>
+  <si>
+    <t>MRM_3</t>
+  </si>
+  <si>
+    <t>MRM_4</t>
+  </si>
+  <si>
+    <t>MRM5_month</t>
+  </si>
+  <si>
+    <t>Year/month</t>
+  </si>
+  <si>
+    <t>MRM4_no_dum</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>All_consumers</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>vehicle</t>
   </si>
 </sst>
 </file>
@@ -106,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +184,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -149,15 +235,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -235,16 +312,123 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -252,33 +436,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -594,180 +865,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1FC2E-B25D-49D5-89C8-E0913BCC7A4D}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C2">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2">
+        <v>0.99</v>
+      </c>
+      <c r="F2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="F2">
-        <v>0.75</v>
+      <c r="C3" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="46">
+        <v>0.82</v>
+      </c>
+      <c r="C4">
+        <v>0.86</v>
+      </c>
+      <c r="D4">
+        <v>0.83</v>
+      </c>
+      <c r="E4" s="46">
+        <v>-0.13</v>
+      </c>
+      <c r="F4">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
         <v>-4.2862516521673504E+16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>99357337.989999995</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>1.27912405811942E+16</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>115321809.17</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>-4.2862516521673504E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="6" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.94</v>
+      </c>
+      <c r="F6" s="47">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
         <v>1.78</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>1.4609000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>1.0775999999999999</v>
       </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="N9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C10" s="8">
         <v>1.6336690000000001E-2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="D10" s="5">
         <v>3.0914699999999998E-3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E10" s="4">
         <v>3.3080000000000002E-3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="F10" s="5">
         <v>-1.09622E-3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G10" s="5">
         <v>-9.3255600000000001E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H10" s="5">
         <v>3.7987400000000001E-3</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I10" s="4">
         <v>1.78933E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="J10" s="5">
         <v>0.84784256999999996</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K10" s="5">
         <v>-0.55641967000000003</v>
       </c>
-      <c r="J9" s="5">
+      <c r="L10" s="5">
         <v>0.43814266000000002</v>
       </c>
-      <c r="K9" s="11">
+      <c r="M10" s="25">
         <v>-6.0167399999999996E-3</v>
       </c>
+      <c r="N10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="41"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="G10" s="6"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2.1699409999999999E-2</v>
+      </c>
+      <c r="C11" s="44">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="D11" s="34">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="E11" s="38">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G11" s="38">
+        <v>-2.29E-2</v>
+      </c>
+      <c r="H11" s="43">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I11" s="38">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.2361</v>
+      </c>
+      <c r="L11" s="39">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="M11" s="26">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="N11" s="29">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="O11" s="36">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="P11" s="35">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="W11" s="19"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="F16" s="3"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-11.625126079999999</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2.7296399999999998E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5.4633499999999996E-3</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3.4408199999999998E-3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.13251E-3</v>
+      </c>
+      <c r="G12" s="18">
+        <v>-4.8692500000000003E-3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1.35E-2</v>
+      </c>
+      <c r="N12" s="28">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="O12" s="37">
+        <v>-0.83530000000000004</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-1148.51316</v>
+      </c>
+      <c r="C13" s="45">
+        <v>-12959.742700000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5042.4585100000004</v>
+      </c>
+      <c r="E13" s="17">
+        <v>5256.9941500000004</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-5534.8022899999996</v>
+      </c>
+      <c r="G13" s="17">
+        <v>-1828.8477</v>
+      </c>
+      <c r="H13" s="17">
+        <v>8577.6454300000005</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="17">
+        <v>-1113.5730000000001</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="42">
+        <v>2734825120</v>
+      </c>
+      <c r="S13" s="40">
+        <v>-166250316</v>
+      </c>
+      <c r="T13" s="40">
+        <v>-2163517440</v>
+      </c>
+      <c r="U13" s="40">
+        <v>-609324390</v>
+      </c>
+      <c r="V13" s="40">
+        <v>-255397570</v>
+      </c>
+      <c r="W13" s="40">
+        <v>-12201275.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="C14" s="16">
+        <v>6.4675100000000001E-3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>-4.6520399999999996E-3</v>
+      </c>
+      <c r="E14" s="18">
+        <v>4.60189E-3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>-1.5555199999999999E-3</v>
+      </c>
+      <c r="G14" s="18">
+        <v>-6.8801499999999998E-3</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.4056849999999999E-2</v>
+      </c>
+      <c r="I14" s="18">
+        <v>-8.4601099999999999E-3</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3.4862459999999998E-2</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3.1801719999999999E-2</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3.0493490000000002E-2</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1.013376E-2</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="17" spans="6:6" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC70965-7353-4F13-A1A0-460E79EE9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47721BC3-4ABA-449C-8FD8-5CBB0E4C1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="354" windowWidth="11568" windowHeight="9600" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>MRM5_month</t>
   </si>
   <si>
-    <t>Year/month</t>
-  </si>
-  <si>
     <t>MRM4_no_dum</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>vehicle</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>-4.2862516521673504E+16</v>
@@ -1014,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1.78</v>
@@ -1026,15 +1026,17 @@
         <v>1.0775999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" t="s">
-        <v>30</v>
+      <c r="A9" s="21"/>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -1082,26 +1084,26 @@
         <v>24</v>
       </c>
       <c r="R9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="T9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="V9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="W9" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8">
@@ -1113,7 +1115,7 @@
       <c r="D10" s="5">
         <v>3.0914699999999998E-3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>3.3080000000000002E-3</v>
       </c>
       <c r="F10" s="5">
@@ -1141,21 +1143,21 @@
         <v>-6.0167399999999996E-3</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W10" s="41"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="15">
@@ -1209,7 +1211,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="18">
@@ -1234,16 +1236,16 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="14">
         <v>1.35E-2</v>
@@ -1264,7 +1266,7 @@
       <c r="W12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="17">
@@ -1289,31 +1291,31 @@
         <v>8577.6454300000005</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="17">
         <v>-1113.5730000000001</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="42">
         <v>2734825120</v>
@@ -1375,16 +1377,16 @@
         <v>1.013376E-2</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>

--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47721BC3-4ABA-449C-8FD8-5CBB0E4C1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507E9A7F-70CD-4915-950F-20F5BE064005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
@@ -136,22 +136,22 @@
     <t>All_consumers</t>
   </si>
   <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>electric</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>residential</t>
-  </si>
-  <si>
-    <t>vehicle</t>
-  </si>
-  <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +192,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -225,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -428,6 +422,35 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -462,9 +485,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,13 +503,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,7 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,13 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +559,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -868,7 +893,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -886,7 +911,7 @@
     <col min="16" max="16" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -930,22 +955,22 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="38">
         <v>0.02</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="38">
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="38">
         <v>0.95</v>
       </c>
     </row>
@@ -953,7 +978,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="38">
         <v>0.82</v>
       </c>
       <c r="C4">
@@ -962,7 +987,7 @@
       <c r="D4">
         <v>0.83</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="38">
         <v>-0.13</v>
       </c>
       <c r="F4">
@@ -989,23 +1014,23 @@
         <v>-4.2862516521673504E+16</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="39">
         <v>0.12</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="39">
         <v>0.01</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="39">
         <v>0.11</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="39">
         <v>0.94</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="39">
         <v>-0.89</v>
       </c>
     </row>
@@ -1030,13 +1055,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -1071,39 +1096,39 @@
       <c r="M9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="23" t="s">
+      <c r="S9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="T9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="U9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="V9" s="44" t="s">
         <v>37</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8">
@@ -1139,262 +1164,267 @@
       <c r="L10" s="5">
         <v>0.43814266000000002</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="21">
         <v>-6.0167399999999996E-3</v>
       </c>
-      <c r="N10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="41"/>
+      <c r="N10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="47"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>2.1699409999999999E-2</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="36">
         <v>-1.67E-2</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="29">
         <v>-1.26E-2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="33">
         <v>-2.7000000000000001E-3</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="33">
         <v>1.47E-2</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="33">
         <v>-2.29E-2</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="35">
         <v>5.62E-2</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="33">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="33">
         <v>0.32979999999999998</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="33">
         <v>0.2361</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="34">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="22">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="25">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="31">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="30">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="29">
         <v>-1.0699999999999999E-2</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>-11.625126079999999</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>2.7296399999999998E-2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>5.4633499999999996E-3</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>3.4408199999999998E-3</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>1.13251E-3</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>-4.8692500000000003E-3</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="14">
+      <c r="I12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="13">
         <v>1.35E-2</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="24">
         <v>0.88519999999999999</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="32">
         <v>-0.83530000000000004</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="28">
         <v>0.55559999999999998</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="28">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="W12" s="19"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>-1148.51316</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>-12959.742700000001</v>
       </c>
       <c r="D13" s="1">
         <v>5042.4585100000004</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>5256.9941500000004</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>-5534.8022899999996</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>-1828.8477</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>8577.6454300000005</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="17">
+      <c r="I13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="16">
         <v>-1113.5730000000001</v>
       </c>
-      <c r="N13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="42">
+      <c r="N13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="41">
         <v>2734825120</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="43">
         <v>-166250316</v>
       </c>
-      <c r="T13" s="40">
+      <c r="T13" s="43">
         <v>-2163517440</v>
       </c>
-      <c r="U13" s="40">
+      <c r="U13" s="43">
         <v>-609324390</v>
       </c>
-      <c r="V13" s="40">
+      <c r="V13" s="43">
         <v>-255397570</v>
       </c>
-      <c r="W13" s="40">
+      <c r="W13" s="43">
         <v>-12201275.5</v>
       </c>
+      <c r="X13" s="45"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>-1.18E-2</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>6.4675100000000001E-3</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>-4.6520399999999996E-3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>4.60189E-3</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>-1.5555199999999999E-3</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>-6.8801499999999998E-3</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>1.4056849999999999E-2</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>-8.4601099999999999E-3</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>3.4862459999999998E-2</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>3.1801719999999999E-2</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>3.0493490000000002E-2</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="17">
         <v>1.013376E-2</v>
       </c>
-      <c r="N14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
+      <c r="N14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
     </row>
     <row r="17" spans="6:6" ht="15.6" x14ac:dyDescent="0.6">
       <c r="F17" s="3"/>

--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507E9A7F-70CD-4915-950F-20F5BE064005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7F2C8-93B3-4016-920F-C570EB7E8BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
+    <workbookView xWindow="468" yWindow="600" windowWidth="17058" windowHeight="9600" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>MRM5_month</t>
   </si>
   <si>
-    <t>MRM4_no_dum</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Vehicle_Fuel</t>
+  </si>
+  <si>
+    <t>MRM4</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,19 +202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -482,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,8 +542,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,6 +558,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -890,15 +883,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1FC2E-B25D-49D5-89C8-E0913BCC7A4D}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
@@ -914,520 +907,535 @@
     <col min="19" max="23" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="31">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="31">
         <v>0.32</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="31">
         <v>0.99</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="31">
         <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="25">
         <v>0.15</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="25">
         <v>0.02</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="25">
         <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="25">
         <v>0.82</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>0.86</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <v>0.83</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="25">
         <v>-0.13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <v>-1.79</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="48">
         <v>-4.2862516521673504E+16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="49">
         <v>99357337.989999995</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="48">
         <v>1.27912405811942E+16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>115321809.17</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="48">
         <v>-4.2862516521673504E+16</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B7" s="37">
         <v>0.12</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C7" s="37">
         <v>0.01</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D7" s="37">
         <v>0.11</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E7" s="37">
         <v>0.94</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F7" s="37">
         <v>-0.89</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1.78</v>
+      </c>
+      <c r="D8">
+        <v>1.4609000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.0775999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
-        <v>1.78</v>
-      </c>
-      <c r="D7">
-        <v>1.4609000000000001</v>
-      </c>
-      <c r="E7">
-        <v>1.0775999999999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
+      <c r="S10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="42" t="s">
+      <c r="T10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="44" t="s">
+      <c r="U10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="V10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="W10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="W9" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <v>1.9E-3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>1.6336690000000001E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>3.0914699999999998E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>3.3080000000000002E-3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>-1.09622E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>-9.3255600000000001E-3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>3.7987400000000001E-3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>1.78933E-3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <v>0.84784256999999996</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <v>-0.55641967000000003</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>0.43814266000000002</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M11" s="20">
         <v>-6.0167399999999996E-3</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="47"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="19" t="s">
+      <c r="N11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="13">
         <v>2.1699409999999999E-2</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C12" s="35">
         <v>-1.67E-2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D12" s="28">
         <v>-1.26E-2</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E12" s="32">
         <v>-2.7000000000000001E-3</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F12" s="32">
         <v>1.47E-2</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G12" s="32">
         <v>-2.29E-2</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H12" s="34">
         <v>5.62E-2</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I12" s="32">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J12" s="32">
         <v>0.32979999999999998</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K12" s="32">
         <v>0.2361</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L12" s="33">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M12" s="21">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N12" s="24">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O12" s="30">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P12" s="29">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q12" s="28">
         <v>-1.0699999999999999E-2</v>
       </c>
-      <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="19" t="s">
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B13" s="16">
         <v>-11.625126079999999</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C13" s="14">
         <v>2.7296399999999998E-2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="11">
         <v>5.4633499999999996E-3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="16">
         <v>3.4408199999999998E-3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="16">
         <v>1.13251E-3</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="16">
         <v>-4.8692500000000003E-3</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="12">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="I13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="12">
         <v>1.35E-2</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N13" s="23">
         <v>0.88519999999999999</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O13" s="31">
         <v>-0.83530000000000004</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P13" s="27">
         <v>0.55559999999999998</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q13" s="27">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="42"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-1148.51316</v>
-      </c>
-      <c r="C13" s="37">
-        <v>-12959.742700000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5042.4585100000004</v>
-      </c>
-      <c r="E13" s="16">
-        <v>5256.9941500000004</v>
-      </c>
-      <c r="F13" s="16">
-        <v>-5534.8022899999996</v>
-      </c>
-      <c r="G13" s="16">
-        <v>-1828.8477</v>
-      </c>
-      <c r="H13" s="16">
-        <v>8577.6454300000005</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="16">
-        <v>-1113.5730000000001</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="41">
-        <v>2734825120</v>
-      </c>
-      <c r="S13" s="43">
-        <v>-166250316</v>
-      </c>
-      <c r="T13" s="43">
-        <v>-2163517440</v>
-      </c>
-      <c r="U13" s="43">
-        <v>-609324390</v>
-      </c>
-      <c r="V13" s="43">
-        <v>-255397570</v>
-      </c>
-      <c r="W13" s="43">
-        <v>-12201275.5</v>
-      </c>
-      <c r="X13" s="45"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="15">
+        <v>-1148.51316</v>
+      </c>
+      <c r="C14" s="36">
+        <v>-12959.742700000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5042.4585100000004</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5256.9941500000004</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-5534.8022899999996</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-1828.8477</v>
+      </c>
+      <c r="H14" s="15">
+        <v>8577.6454300000005</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="15">
+        <v>-1113.5730000000001</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="38">
+        <v>2734825120</v>
+      </c>
+      <c r="S14" s="40">
+        <v>-166250316</v>
+      </c>
+      <c r="T14" s="40">
+        <v>-2163517440</v>
+      </c>
+      <c r="U14" s="40">
+        <v>-609324390</v>
+      </c>
+      <c r="V14" s="40">
+        <v>-255397570</v>
+      </c>
+      <c r="W14" s="40">
+        <v>-12201275.5</v>
+      </c>
+      <c r="X14" s="42"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B15" s="14">
         <v>-1.18E-2</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="14">
         <v>6.4675100000000001E-3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="11">
         <v>-4.6520399999999996E-3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="16">
         <v>4.60189E-3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="16">
         <v>-1.5555199999999999E-3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="16">
         <v>-6.8801499999999998E-3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="16">
         <v>1.4056849999999999E-2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="16">
         <v>-8.4601099999999999E-3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="16">
         <v>3.4862459999999998E-2</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K15" s="14">
         <v>3.1801719999999999E-2</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="14">
         <v>3.0493490000000002E-2</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="16">
         <v>1.013376E-2</v>
       </c>
-      <c r="N14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="48"/>
-    </row>
-    <row r="17" spans="6:6" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="F17" s="3"/>
+      <c r="N15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="43"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="45"/>
+    </row>
+    <row r="18" spans="6:6" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7F2C8-93B3-4016-920F-C570EB7E8BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA2DA22-E243-46A7-83C0-5E883242ED97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="600" windowWidth="17058" windowHeight="9600" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>All_consumers</t>
   </si>
   <si>
     <t>Year</t>
@@ -162,7 +159,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +169,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -410,26 +400,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -451,7 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,11 +452,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,77 +462,92 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -883,166 +865,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1FC2E-B25D-49D5-89C8-E0913BCC7A4D}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5234375" customWidth="1"/>
     <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.89453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.26171875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="12.15625" customWidth="1"/>
+    <col min="18" max="22" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="20">
         <v>0.32</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="20">
         <v>0.99</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="20">
         <v>0.36</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="19">
         <v>0.15</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
         <v>0.02</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="19">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="19">
         <v>0.82</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>0.86</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>0.83</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>-0.13</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="19">
         <v>-1.79</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="48">
-        <v>-4.2862516521673504E+16</v>
-      </c>
-      <c r="C5" s="49">
-        <v>99357337.989999995</v>
-      </c>
-      <c r="D5" s="48">
-        <v>1.27912405811942E+16</v>
-      </c>
-      <c r="E5" s="25">
-        <v>115321809.17</v>
-      </c>
-      <c r="F5" s="48">
-        <v>-4.2862516521673504E+16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="28">
+        <v>-0.64</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.66</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="21">
         <v>0.12</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="21">
         <v>0.01</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="21">
         <v>0.11</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="21">
         <v>0.94</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="21">
         <v>-0.89</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1062,380 +1046,469 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="6" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="41" t="s">
+      <c r="V10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="18" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1.9E-3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1.6336690000000001E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3.0914699999999998E-3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3.3080000000000002E-3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>-1.09622E-3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>-9.3255600000000001E-3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>3.7987400000000001E-3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1.78933E-3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0.84784256999999996</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>-0.55641967000000003</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>0.43814266000000002</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <v>-6.0167399999999996E-3</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="44"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18" t="s">
+      <c r="N11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>2.1699409999999999E-2</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="32">
         <v>-1.67E-2</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="33">
         <v>-1.26E-2</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="34">
         <v>-2.7000000000000001E-3</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="34">
         <v>1.47E-2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="34">
         <v>-2.29E-2</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="35">
         <v>5.62E-2</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="34">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="34">
         <v>0.32979999999999998</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="34">
         <v>0.2361</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="39">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="40">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="41">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="42">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="43">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="33">
         <v>-1.0699999999999999E-2</v>
       </c>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="18" t="s">
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>-11.625126079999999</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>2.7296399999999998E-2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>5.4633499999999996E-3</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>3.4408199999999998E-3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>1.13251E-3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>-4.8692500000000003E-3</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="I13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="12">
         <v>1.35E-2</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="46">
         <v>0.88519999999999999</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="37">
         <v>-0.83530000000000004</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="36">
         <v>0.55559999999999998</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="36">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="39"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="18" t="s">
+      <c r="R13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15">
-        <v>-1148.51316</v>
-      </c>
-      <c r="C14" s="36">
-        <v>-12959.742700000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5042.4585100000004</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5256.9941500000004</v>
-      </c>
-      <c r="F14" s="15">
-        <v>-5534.8022899999996</v>
-      </c>
-      <c r="G14" s="15">
-        <v>-1828.8477</v>
-      </c>
-      <c r="H14" s="15">
-        <v>8577.6454300000005</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="15">
-        <v>-1113.5730000000001</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="38">
-        <v>2734825120</v>
-      </c>
-      <c r="S14" s="40">
-        <v>-166250316</v>
-      </c>
-      <c r="T14" s="40">
-        <v>-2163517440</v>
-      </c>
-      <c r="U14" s="40">
-        <v>-609324390</v>
-      </c>
-      <c r="V14" s="40">
-        <v>-255397570</v>
-      </c>
-      <c r="W14" s="40">
-        <v>-12201275.5</v>
-      </c>
-      <c r="X14" s="42"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="14">
-        <v>-1.18E-2</v>
-      </c>
-      <c r="C15" s="14">
-        <v>6.4675100000000001E-3</v>
-      </c>
-      <c r="D15" s="11">
-        <v>-4.6520399999999996E-3</v>
-      </c>
-      <c r="E15" s="16">
-        <v>4.60189E-3</v>
-      </c>
-      <c r="F15" s="16">
-        <v>-1.5555199999999999E-3</v>
-      </c>
-      <c r="G15" s="16">
-        <v>-6.8801499999999998E-3</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1.4056849999999999E-2</v>
-      </c>
-      <c r="I15" s="16">
-        <v>-8.4601099999999999E-3</v>
-      </c>
-      <c r="J15" s="16">
-        <v>3.4862459999999998E-2</v>
-      </c>
-      <c r="K15" s="14">
-        <v>3.1801719999999999E-2</v>
-      </c>
-      <c r="L15" s="14">
-        <v>3.0493490000000002E-2</v>
-      </c>
-      <c r="M15" s="16">
-        <v>1.013376E-2</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45"/>
-    </row>
-    <row r="18" spans="6:6" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="F18" s="3"/>
+      <c r="B14" s="13">
+        <v>1.6354</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-0.75290000000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <v>8.9337</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="F14" s="14">
+        <v>-0.78769999999999996</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="14">
+        <v>-0.52190000000000003</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0.77105000000000001</v>
+      </c>
+      <c r="S14" s="3">
+        <v>-6.4988089999999996</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-2.7860269999999998</v>
+      </c>
+      <c r="U14" s="3">
+        <v>-1.9917727599999999</v>
+      </c>
+      <c r="V14" s="17">
+        <v>-1.7426163299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA2DA22-E243-46A7-83C0-5E883242ED97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546864F5-B874-4FD9-A557-E1BF88C9A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -124,9 +124,6 @@
     <t>MRM_4</t>
   </si>
   <si>
-    <t>MRM5_month</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>MRM4</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -319,10 +319,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,13 +339,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -356,60 +356,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -417,10 +375,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,25 +399,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,10 +442,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -505,51 +460,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -865,24 +801,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1FC2E-B25D-49D5-89C8-E0913BCC7A4D}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.5234375" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.26171875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.734375" bestFit="1" customWidth="1"/>
@@ -891,624 +828,607 @@
     <col min="18" max="22" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>0.32</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <v>0.99</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>0.36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>0.15</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="15">
         <v>0.02</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="15">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>0.82</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>0.86</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>0.83</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>-0.13</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>-1.79</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="23">
+        <v>-0.64</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.66</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.49</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1.78</v>
+      </c>
+      <c r="D6" s="37">
+        <v>1.4609000000000001</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1.0775999999999999</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="28">
-        <v>-0.64</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0.66</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0.49</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.65</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="B7" s="15">
+        <v>0.92</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.12</v>
       </c>
-      <c r="C7" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.94</v>
-      </c>
-      <c r="F7" s="21">
-        <v>-0.89</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
-        <v>1.78</v>
-      </c>
-      <c r="D8">
-        <v>1.4609000000000001</v>
-      </c>
-      <c r="E8">
-        <v>1.0775999999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.6336690000000001E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.0914699999999998E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.3080000000000002E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1.09622E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-9.3255600000000001E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.7987400000000001E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.78933E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.84784256999999996</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-0.55641967000000003</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.43814266000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.1699409999999999E-2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="D12" s="28">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G12" s="29">
+        <v>-2.29E-2</v>
+      </c>
+      <c r="H12" s="30">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I12" s="29">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.2361</v>
+      </c>
+      <c r="L12" s="31">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12">
+        <v>-11.625126079999999</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.7296399999999998E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5.4633499999999996E-3</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3.4408199999999998E-3</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.13251E-3</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-4.8692500000000003E-3</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1.6354</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-0.75290000000000001</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8.9337</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-0.78769999999999996</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="I16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="J16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="K16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="15" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1.6336690000000001E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.0914699999999998E-3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3.3080000000000002E-3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-1.09622E-3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-9.3255600000000001E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3.7987400000000001E-3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1.78933E-3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.84784256999999996</v>
-      </c>
-      <c r="K11" s="4">
-        <v>-0.55641967000000003</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.43814266000000002</v>
-      </c>
-      <c r="M11" s="17">
+      <c r="B17" s="2">
         <v>-6.0167399999999996E-3</v>
       </c>
-      <c r="N11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="24"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
+      <c r="C17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12">
-        <v>2.1699409999999999E-2</v>
-      </c>
-      <c r="C12" s="32">
-        <v>-1.67E-2</v>
-      </c>
-      <c r="D12" s="33">
-        <v>-1.26E-2</v>
-      </c>
-      <c r="E12" s="34">
-        <v>-2.7000000000000001E-3</v>
-      </c>
-      <c r="F12" s="34">
-        <v>1.47E-2</v>
-      </c>
-      <c r="G12" s="34">
-        <v>-2.29E-2</v>
-      </c>
-      <c r="H12" s="35">
-        <v>5.62E-2</v>
-      </c>
-      <c r="I12" s="34">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="J12" s="34">
-        <v>0.32979999999999998</v>
-      </c>
-      <c r="K12" s="34">
-        <v>0.2361</v>
-      </c>
-      <c r="L12" s="39">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="M12" s="40">
+      <c r="B18" s="32">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N12" s="41">
+      <c r="C18" s="32">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="O12" s="42">
+      <c r="D18" s="32">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="P12" s="43">
+      <c r="E18" s="32">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="F18" s="38">
         <v>-1.0699999999999999E-2</v>
       </c>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="15" t="s">
+      <c r="G18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14">
-        <v>-11.625126079999999</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2.7296399999999998E-2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>5.4633499999999996E-3</v>
-      </c>
-      <c r="E13" s="14">
-        <v>3.4408199999999998E-3</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1.13251E-3</v>
-      </c>
-      <c r="G13" s="14">
-        <v>-4.8692500000000003E-3</v>
-      </c>
-      <c r="H13" s="14">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="12">
+      <c r="B19" s="11">
         <v>1.35E-2</v>
       </c>
-      <c r="N13" s="46">
+      <c r="C19" s="11">
         <v>0.88519999999999999</v>
       </c>
-      <c r="O13" s="37">
+      <c r="D19" s="11">
         <v>-0.83530000000000004</v>
       </c>
-      <c r="P13" s="36">
+      <c r="E19" s="11">
         <v>0.55559999999999998</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="F19" s="11">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="G19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="I19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="J19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="23" t="s">
+      <c r="K19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="15" t="s">
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13">
-        <v>1.6354</v>
-      </c>
-      <c r="C14" s="13">
-        <v>-0.75290000000000001</v>
-      </c>
-      <c r="D14" s="10">
-        <v>8.9337</v>
-      </c>
-      <c r="E14" s="44">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="F14" s="14">
-        <v>-0.78769999999999996</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0.25130000000000002</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="B20" s="11">
         <v>-0.52190000000000003</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="14">
+      <c r="C20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11">
         <v>0.77105000000000001</v>
       </c>
-      <c r="S14" s="3">
+      <c r="H20" s="11">
         <v>-6.4988089999999996</v>
       </c>
-      <c r="T14" s="3">
+      <c r="I20" s="11">
         <v>-2.7860269999999998</v>
       </c>
-      <c r="U14" s="3">
+      <c r="J20" s="11">
         <v>-1.9917727599999999</v>
       </c>
-      <c r="V14" s="17">
+      <c r="K20" s="11">
         <v>-1.7426163299999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="F26" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Datasets/model_evatuation.xlsx
+++ b/Resources/Datasets/model_evatuation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546864F5-B874-4FD9-A557-E1BF88C9A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8571479-4C52-4F52-9219-C2BA11F1C481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{52640E99-822F-4AD9-ACB3-525E1339F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -149,6 +150,39 @@
   </si>
   <si>
     <t>ARIMA</t>
+  </si>
+  <si>
+    <t>Multiple Linear Regrssion</t>
+  </si>
+  <si>
+    <t>Artificial Neural Network</t>
+  </si>
+  <si>
+    <t>AutoReg Integrated MovingAvg</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>Able to determine the reative influence of more predictor variables. And it's able to identify outliers.</t>
+  </si>
+  <si>
+    <t>It cant determine nonlinearity of independent variables and dependent. Susceptible to colinear problems.</t>
+  </si>
+  <si>
+    <t>Able to determine the nonlinear relations between features and target. Robust to noise in the training data. Not affect the final output when data contains errors.</t>
+  </si>
+  <si>
+    <t>Poor interpretability and proven to overfitting. Difficult to train data, features may confuse the model. Lack of optimization for parameters, structure, and weights.</t>
+  </si>
+  <si>
+    <t>Computatuinally expensive, poorer performance for long term forcasts. Cannot be used for seasonal time series.</t>
+  </si>
+  <si>
+    <t>Used for time series data to do forecasting. Better understand the datasets and predict future trends.</t>
   </si>
 </sst>
 </file>
@@ -197,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -286,15 +320,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -353,21 +378,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -375,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,27 +405,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,19 +442,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -454,38 +469,46 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -801,18 +824,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1FC2E-B25D-49D5-89C8-E0913BCC7A4D}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="A23:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" customWidth="1"/>
+    <col min="2" max="2" width="14.47265625" customWidth="1"/>
     <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7890625" customWidth="1"/>
     <col min="5" max="5" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -829,609 +852,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0.32</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.99</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.15</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.02</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0.82</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.86</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.83</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>-0.13</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>-1.79</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>-0.64</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>0.66</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>0.49</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>0.65</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="36">
         <v>1.78</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>1.4609000000000001</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>1.0775999999999999</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15" t="s">
+      <c r="F6" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.92</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.12</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.03</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.08</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>18</v>
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.6336690000000001E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.0914699999999998E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.3080000000000002E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1.09622E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-9.3255600000000001E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.7987400000000001E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.78933E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.84784256999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-0.55641967000000003</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.43814266000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.1699409999999999E-2</v>
+      </c>
+      <c r="C10" s="26">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="D10" s="27">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="E10" s="28">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G10" s="28">
+        <v>-2.29E-2</v>
+      </c>
+      <c r="H10" s="29">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I10" s="28">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0.2361</v>
+      </c>
+      <c r="L10" s="30">
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11">
+        <v>-11.625126079999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.7296399999999998E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5.4633499999999996E-3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3.4408199999999998E-3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.13251E-3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-4.8692500000000003E-3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.6354</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-0.75290000000000001</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8.9337</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-0.78769999999999996</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.6336690000000001E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.0914699999999998E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.3080000000000002E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-1.09622E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-9.3255600000000001E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.7987400000000001E-3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.78933E-3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.84784256999999996</v>
-      </c>
-      <c r="K11" s="2">
-        <v>-0.55641967000000003</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.43814266000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+      <c r="B15" s="2">
+        <v>-6.0167399999999996E-3</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10">
-        <v>2.1699409999999999E-2</v>
-      </c>
-      <c r="C12" s="27">
-        <v>-1.67E-2</v>
-      </c>
-      <c r="D12" s="28">
-        <v>-1.26E-2</v>
-      </c>
-      <c r="E12" s="29">
-        <v>-2.7000000000000001E-3</v>
-      </c>
-      <c r="F12" s="29">
-        <v>1.47E-2</v>
-      </c>
-      <c r="G12" s="29">
-        <v>-2.29E-2</v>
-      </c>
-      <c r="H12" s="30">
-        <v>5.62E-2</v>
-      </c>
-      <c r="I12" s="29">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="J12" s="29">
-        <v>0.32979999999999998</v>
-      </c>
-      <c r="K12" s="29">
-        <v>0.2361</v>
-      </c>
-      <c r="L12" s="31">
-        <v>6.6600000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
+      <c r="B16" s="31">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="C16" s="31">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D16" s="31">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E16" s="31">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F16" s="37">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
-        <v>-11.625126079999999</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2.7296399999999998E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5.4633499999999996E-3</v>
-      </c>
-      <c r="E13" s="12">
-        <v>3.4408199999999998E-3</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1.13251E-3</v>
-      </c>
-      <c r="G13" s="12">
-        <v>-4.8692500000000003E-3</v>
-      </c>
-      <c r="H13" s="12">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
+      <c r="B17" s="10">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-0.83530000000000004</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11">
-        <v>1.6354</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-0.75290000000000001</v>
-      </c>
-      <c r="D14" s="8">
-        <v>8.9337</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="F14" s="12">
-        <v>-0.78769999999999996</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.25130000000000002</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-6.0167399999999996E-3</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="32">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="C18" s="32">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="D18" s="32">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="E18" s="32">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="F18" s="38">
-        <v>-1.0699999999999999E-2</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1.35E-2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="D19" s="11">
-        <v>-0.83530000000000004</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="F19" s="11">
-        <v>-4.4000000000000003E-3</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="B18" s="10">
         <v>-0.52190000000000003</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="10">
         <v>0.77105000000000001</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H18" s="10">
         <v>-6.4988089999999996</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I18" s="10">
         <v>-2.7860269999999998</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J18" s="10">
         <v>-1.9917727599999999</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K18" s="10">
         <v>-1.7426163299999999</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F26" s="41"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="88.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" ht="121.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" ht="83.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="96.3" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:13" ht="85.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37F9F9F-6D90-4F21-8C0E-0D9D10FC65BB}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <col min="3" max="6" width="18.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>